--- a/resources/creole_data/Toybee_creole_numbers.xlsx
+++ b/resources/creole_data/Toybee_creole_numbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\GitHub\llord1.github.io\resources\creole_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C8E66-D3E4-4351-8E03-1CD6B04A314D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56038E-2079-4152-A564-8E83DFE61F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0D6455CC-6C97-4E30-AE60-B32D6D7A921B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>nòt</t>
   </si>
@@ -160,6 +160,102 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one </t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fourteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fifteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sixteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seventeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eighteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nineteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> twenty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> twenty-one</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> twenty-two</t>
+  </si>
+  <si>
+    <t>one hundred</t>
+  </si>
+  <si>
+    <t>ninety</t>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>sixty</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>one thousand</t>
   </si>
 </sst>
 </file>
@@ -513,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310E006-93C4-49E5-8403-3EB658ED3F10}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -534,323 +630,324 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>11</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>12</v>
+      <c r="B14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>13</v>
+      <c r="B15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>14</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>15</v>
+      <c r="B17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18">
-        <v>16</v>
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19">
-        <v>17</v>
+      <c r="B19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
-        <v>18</v>
+      <c r="B20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
-        <v>19</v>
+      <c r="B21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22">
-        <v>20</v>
+      <c r="B22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
-        <v>21</v>
+      <c r="B23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24">
-        <v>22</v>
+      <c r="B24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25">
-        <v>30</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>40</v>
+      <c r="B26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27">
-        <v>50</v>
+      <c r="B27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28">
-        <v>60</v>
+      <c r="B28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29">
-        <v>70</v>
+      <c r="B29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30">
-        <v>80</v>
+      <c r="B30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31">
-        <v>90</v>
+      <c r="B31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>100</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>1000</v>
+      <c r="B33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>2</v>
+      <c r="B34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>3</v>
+      <c r="B35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>6</v>
+      <c r="B37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>9</v>
+      <c r="B38" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>10</v>
+      <c r="B39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>20</v>
+      <c r="B40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>100</v>
+      <c r="B41" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>